--- a/Website_data.xlsx
+++ b/Website_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayke\Documents\Final-Project-ec327\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD8AF4-E019-4E79-886D-82D40DAF3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82114F0-28CA-4B28-8E3C-3202BD407E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9450" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="85">
   <si>
     <t>Building_name</t>
   </si>
@@ -220,17 +220,91 @@
   </si>
   <si>
     <t>100 Bay State Road</t>
+  </si>
+  <si>
+    <t>var_name</t>
+  </si>
+  <si>
+    <t>StuVi1</t>
+  </si>
+  <si>
+    <t>Howard_Therman_Center</t>
+  </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>Cgs</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>cfa</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Sleeper</t>
+  </si>
+  <si>
+    <t>Claflin</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Towers</t>
+  </si>
+  <si>
+    <t>Myles</t>
+  </si>
+  <si>
+    <t>Kilachand</t>
+  </si>
+  <si>
+    <t>Danielsen</t>
+  </si>
+  <si>
+    <t>TenNineteen</t>
+  </si>
+  <si>
+    <t>Gsu</t>
+  </si>
+  <si>
+    <t>Lse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +316,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,17 +345,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J999"/>
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -502,7 +584,7 @@
     <col min="1" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +615,11 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -565,8 +650,11 @@
       <c r="J2" s="4">
         <v>71.115899999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,8 +685,11 @@
       <c r="J3" s="4">
         <v>71.115899999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -629,8 +720,11 @@
       <c r="J4" s="4">
         <v>71.115899999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -661,8 +755,11 @@
       <c r="J5" s="4">
         <v>71.120500000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -693,8 +790,11 @@
       <c r="J6" s="4">
         <v>71.120599999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -725,8 +825,11 @@
       <c r="J7" s="4">
         <v>71.119799999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1019</v>
       </c>
@@ -757,8 +860,11 @@
       <c r="J8" s="4">
         <v>71.121399999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -789,8 +895,11 @@
       <c r="J9" s="4">
         <v>71.104799999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -821,8 +930,11 @@
       <c r="J10" s="4">
         <v>71.099800000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -853,8 +965,11 @@
       <c r="J11" s="4">
         <v>71.099800000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,8 +1000,11 @@
       <c r="J12" s="4">
         <v>71.094399999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -917,8 +1035,11 @@
       <c r="J13" s="4">
         <v>71.096999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -949,8 +1070,11 @@
       <c r="J14" s="5">
         <v>71.885900000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -981,8 +1105,11 @@
       <c r="J15" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1013,8 +1140,11 @@
       <c r="J16" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1045,8 +1175,11 @@
       <c r="J17" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1077,8 +1210,11 @@
       <c r="J18" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1245,11 @@
       <c r="J19" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1141,8 +1280,11 @@
       <c r="J20" s="4">
         <v>71.108000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1173,8 +1315,11 @@
       <c r="J21" s="4">
         <v>71.108900000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1205,8 +1350,11 @@
       <c r="J22" s="4">
         <v>71.108900000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1237,8 +1385,11 @@
       <c r="J23" s="4">
         <v>71.108900000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1269,8 +1420,11 @@
       <c r="J24" s="4">
         <v>71.109039999999993</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1301,8 +1455,11 @@
       <c r="J25" s="4">
         <v>71.109039999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1333,8 +1490,11 @@
       <c r="J26" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1365,8 +1525,11 @@
       <c r="J27" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1397,8 +1560,11 @@
       <c r="J28" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1429,8 +1595,11 @@
       <c r="J29" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1461,8 +1630,11 @@
       <c r="J30" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1493,8 +1665,11 @@
       <c r="J31" s="4">
         <v>71.105400000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1525,8 +1700,11 @@
       <c r="J32" s="4">
         <v>71.113900000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1557,8 +1735,11 @@
       <c r="J33" s="4">
         <v>71.113900000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1589,8 +1770,11 @@
       <c r="J34" s="4">
         <v>71.113900000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1621,8 +1805,11 @@
       <c r="J35" s="4">
         <v>71.114599999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -1653,8 +1840,11 @@
       <c r="J36" s="4">
         <v>71.114599999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1685,8 +1875,11 @@
       <c r="J37" s="4">
         <v>71.114599999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1717,8 +1910,11 @@
       <c r="J38" s="4">
         <v>71.102500000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1749,8 +1945,11 @@
       <c r="J39" s="4">
         <v>71.102500000000006</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1781,8 +1980,11 @@
       <c r="J40" s="4">
         <v>71.107900000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1813,8 +2015,11 @@
       <c r="J41" s="4">
         <v>71.107900000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -1845,8 +2050,11 @@
       <c r="J42" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1877,8 +2085,11 @@
       <c r="J43" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -1909,8 +2120,11 @@
       <c r="J44" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1941,8 +2155,11 @@
       <c r="J45" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1973,8 +2190,11 @@
       <c r="J46" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,8 +2225,11 @@
       <c r="J47" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -2037,8 +2260,11 @@
       <c r="J48" s="4">
         <v>71.099500000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -2069,8 +2295,11 @@
       <c r="J49" s="4">
         <v>71.107100000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -2101,8 +2330,11 @@
       <c r="J50" s="4">
         <v>71.107100000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2133,8 +2365,11 @@
       <c r="J51" s="4">
         <v>71.107100000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2165,8 +2400,11 @@
       <c r="J52" s="4">
         <v>71.107100000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2197,8 +2435,11 @@
       <c r="J53" s="4">
         <v>71.107100000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2229,8 +2470,11 @@
       <c r="J54" s="4">
         <v>71.101900000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2261,8 +2505,11 @@
       <c r="J55" s="4">
         <v>71.101900000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2293,8 +2540,11 @@
       <c r="J56" s="4">
         <v>71.101900000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2325,8 +2575,11 @@
       <c r="J57" s="4">
         <v>71.100300000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2357,8 +2610,11 @@
       <c r="J58" s="4">
         <v>71.100300000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2389,8 +2645,11 @@
       <c r="J59" s="4">
         <v>71.100300000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,8 +2680,11 @@
       <c r="J60" s="4">
         <v>71.100300000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2453,8 +2715,11 @@
       <c r="J61" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2750,11 @@
       <c r="J62" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -2517,8 +2785,11 @@
       <c r="J63" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
@@ -2549,8 +2820,11 @@
       <c r="J64" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -2581,8 +2855,11 @@
       <c r="J65" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
@@ -2613,8 +2890,11 @@
       <c r="J66" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2925,11 @@
       <c r="J67" s="4">
         <v>71.1066</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -2677,8 +2960,11 @@
       <c r="J68" s="4">
         <v>71.1006</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2709,8 +2995,11 @@
       <c r="J69" s="4">
         <v>71.1006</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
@@ -2741,8 +3030,11 @@
       <c r="J70" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2773,8 +3065,11 @@
       <c r="J71" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2805,8 +3100,11 @@
       <c r="J72" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
@@ -2837,8 +3135,11 @@
       <c r="J73" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>63</v>
       </c>
@@ -2869,8 +3170,11 @@
       <c r="J74" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,8 +3205,11 @@
       <c r="J75" s="4">
         <v>71.097499999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2910,7 +3217,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2918,7 +3225,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2926,7 +3233,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2934,7 +3241,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3925,7 +4232,8 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Website_data.xlsx
+++ b/Website_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayke\Documents\Final-Project-ec327\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82114F0-28CA-4B28-8E3C-3202BD407E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D31DB-8CDC-4075-AE5D-C48C59CD5E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>Law</t>
   </si>
   <si>
-    <t>cfa</t>
-  </si>
-  <si>
     <t>Rich</t>
   </si>
   <si>
@@ -280,17 +277,27 @@
   </si>
   <si>
     <t>Lse</t>
+  </si>
+  <si>
+    <t>Cfa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,17 +352,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -575,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -756,7 +764,7 @@
         <v>71.120500000000007</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,7 +799,7 @@
         <v>71.120599999999996</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,7 +834,7 @@
         <v>71.119799999999998</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,7 +869,7 @@
         <v>71.121399999999994</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,7 +904,7 @@
         <v>71.104799999999997</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,7 +939,7 @@
         <v>71.099800000000002</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,7 +974,7 @@
         <v>71.099800000000002</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,7 +1009,7 @@
         <v>71.094399999999993</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,7 +1044,7 @@
         <v>71.096999999999994</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,7 +1079,7 @@
         <v>71.885900000000007</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1324,7 @@
         <v>71.108900000000006</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1359,7 @@
         <v>71.108900000000006</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,7 +1394,7 @@
         <v>71.108900000000006</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,8 +1708,8 @@
       <c r="J32" s="4">
         <v>71.113900000000001</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>73</v>
+      <c r="K32" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,8 +1743,8 @@
       <c r="J33" s="4">
         <v>71.113900000000001</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>73</v>
+      <c r="K33" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,8 +1778,8 @@
       <c r="J34" s="4">
         <v>71.113900000000001</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>73</v>
+      <c r="K34" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2479,7 @@
         <v>71.101900000000001</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,7 +2514,7 @@
         <v>71.101900000000001</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2549,7 @@
         <v>71.101900000000001</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4240,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
